--- a/Code/Results/Cases/Case_2_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.009438570691902</v>
+        <v>1.03508387794875</v>
       </c>
       <c r="D2">
-        <v>1.025104247534538</v>
+        <v>1.038959112610628</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.014044157089989</v>
+        <v>1.044443363667182</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045307977371566</v>
+        <v>1.038340563394524</v>
       </c>
       <c r="J2">
-        <v>1.031340594585898</v>
+        <v>1.040199588978427</v>
       </c>
       <c r="K2">
-        <v>1.036224577561939</v>
+        <v>1.041745662628496</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.025311241316957</v>
+        <v>1.047214398958442</v>
       </c>
       <c r="N2">
-        <v>1.014101074634804</v>
+        <v>1.017324353309392</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014217069792277</v>
+        <v>1.036061397472625</v>
       </c>
       <c r="D3">
-        <v>1.028688125516277</v>
+        <v>1.039708767190242</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.01957733633536</v>
+        <v>1.045656601634446</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046887976095221</v>
+        <v>1.038608154690166</v>
       </c>
       <c r="J3">
-        <v>1.034327526108493</v>
+        <v>1.040820367756812</v>
       </c>
       <c r="K3">
-        <v>1.0389666373497</v>
+        <v>1.042305597133657</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.02996570261972</v>
+        <v>1.048237827325504</v>
       </c>
       <c r="N3">
-        <v>1.015115642245005</v>
+        <v>1.017533305539295</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017239152227254</v>
+        <v>1.036693845215637</v>
       </c>
       <c r="D4">
-        <v>1.030957126410766</v>
+        <v>1.040193756117787</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.023080017875888</v>
+        <v>1.046441998090052</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047877771865557</v>
+        <v>1.038780110454255</v>
       </c>
       <c r="J4">
-        <v>1.036211927441473</v>
+        <v>1.041221381246135</v>
       </c>
       <c r="K4">
-        <v>1.040695748908265</v>
+        <v>1.042667161295123</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.032907644474068</v>
+        <v>1.048899839723459</v>
       </c>
       <c r="N4">
-        <v>1.015755471253641</v>
+        <v>1.017668209137904</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018493537664819</v>
+        <v>1.036959708800484</v>
       </c>
       <c r="D5">
-        <v>1.031899462199356</v>
+        <v>1.040397623850994</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.024534723201302</v>
+        <v>1.046772263392677</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048286310326651</v>
+        <v>1.038852114740509</v>
       </c>
       <c r="J5">
-        <v>1.036992951376869</v>
+        <v>1.041389806248352</v>
       </c>
       <c r="K5">
-        <v>1.041412206617496</v>
+        <v>1.042818982786611</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.034128376072683</v>
+        <v>1.049178099010734</v>
       </c>
       <c r="N5">
-        <v>1.016020596497174</v>
+        <v>1.017724850055826</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018703228509213</v>
+        <v>1.037004347442381</v>
       </c>
       <c r="D6">
-        <v>1.032057018875096</v>
+        <v>1.040431852855267</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.02477795106828</v>
+        <v>1.046827721375165</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048354468039297</v>
+        <v>1.038864187806549</v>
       </c>
       <c r="J6">
-        <v>1.037123444297981</v>
+        <v>1.041418076095889</v>
       </c>
       <c r="K6">
-        <v>1.041531899584961</v>
+        <v>1.042844463713856</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.034332418699212</v>
+        <v>1.049224817011082</v>
       </c>
       <c r="N6">
-        <v>1.016064889563818</v>
+        <v>1.017734356056329</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.017255975817017</v>
+        <v>1.036697397766449</v>
       </c>
       <c r="D7">
-        <v>1.030969762800613</v>
+        <v>1.040196480294107</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.023099524762672</v>
+        <v>1.046446410777685</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047883260238637</v>
+        <v>1.038781073702686</v>
       </c>
       <c r="J7">
-        <v>1.03622240693794</v>
+        <v>1.041223632382416</v>
       </c>
       <c r="K7">
-        <v>1.040705362897383</v>
+        <v>1.042669190649315</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.03292401822292</v>
+        <v>1.048903558036289</v>
       </c>
       <c r="N7">
-        <v>1.015759028865302</v>
+        <v>1.017668966261893</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011068364025631</v>
+        <v>1.035414250295467</v>
       </c>
       <c r="D8">
-        <v>1.026326050570443</v>
+        <v>1.039212479679644</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.015930677311806</v>
+        <v>1.044853311027014</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045848828882558</v>
+        <v>1.038431244202496</v>
       </c>
       <c r="J8">
-        <v>1.032360296933219</v>
+        <v>1.04040952306259</v>
       </c>
       <c r="K8">
-        <v>1.037160846392178</v>
+        <v>1.041935050407854</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.026899096119263</v>
+        <v>1.04756031604846</v>
       </c>
       <c r="N8">
-        <v>1.014447483921266</v>
+        <v>1.017395032235279</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9995986037248412</v>
+        <v>1.033152624045191</v>
       </c>
       <c r="D9">
-        <v>1.017740115122731</v>
+        <v>1.037477899758061</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.00266651895012</v>
+        <v>1.04204871499251</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042003626596024</v>
+        <v>1.037805663767998</v>
       </c>
       <c r="J9">
-        <v>1.025165544295789</v>
+        <v>1.038969821716493</v>
       </c>
       <c r="K9">
-        <v>1.030551781961188</v>
+        <v>1.040635663961925</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.015716481383625</v>
+        <v>1.045191686520374</v>
       </c>
       <c r="N9">
-        <v>1.012002475923425</v>
+        <v>1.016910015151339</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9915248292835266</v>
+        <v>1.03164449700387</v>
       </c>
       <c r="D10">
-        <v>1.011714887800449</v>
+        <v>1.03632111344021</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>0.9933431842985655</v>
+        <v>1.040180715071189</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039248838288658</v>
+        <v>1.037382474638244</v>
       </c>
       <c r="J10">
-        <v>1.02007878644672</v>
+        <v>1.038006577479572</v>
       </c>
       <c r="K10">
-        <v>1.025875799452168</v>
+        <v>1.039765565106321</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.007833678858639</v>
+        <v>1.043611442644321</v>
       </c>
       <c r="N10">
-        <v>1.010272998575457</v>
+        <v>1.016585124765853</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9879160137945329</v>
+        <v>1.030991370670861</v>
       </c>
       <c r="D11">
-        <v>1.009027017672737</v>
+        <v>1.035820123949057</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>0.9891783028786501</v>
+        <v>1.039372248892747</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038006583724685</v>
+        <v>1.037197774928161</v>
       </c>
       <c r="J11">
-        <v>1.017800286998814</v>
+        <v>1.037588666866625</v>
       </c>
       <c r="K11">
-        <v>1.023780682145462</v>
+        <v>1.039387894462973</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.004307227425385</v>
+        <v>1.042926895815578</v>
       </c>
       <c r="N11">
-        <v>1.009498196021977</v>
+        <v>1.016444078423518</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9865575209358443</v>
+        <v>1.030748755602423</v>
       </c>
       <c r="D12">
-        <v>1.008016076592485</v>
+        <v>1.035634020570872</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>0.9876107857416534</v>
+        <v>1.039072006018485</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037537355547426</v>
+        <v>1.037128950510561</v>
       </c>
       <c r="J12">
-        <v>1.016941891173327</v>
+        <v>1.03743331316808</v>
       </c>
       <c r="K12">
-        <v>1.02299129592563</v>
+        <v>1.039247473888574</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.002979255961815</v>
+        <v>1.042672580052871</v>
       </c>
       <c r="N12">
-        <v>1.009206287287531</v>
+        <v>1.016391632527559</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.986849755756212</v>
+        <v>1.030800798034816</v>
       </c>
       <c r="D13">
-        <v>1.008233506357727</v>
+        <v>1.035673940984244</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>0.9879479728790076</v>
+        <v>1.039136406552399</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037638365904222</v>
+        <v>1.037143723478893</v>
       </c>
       <c r="J13">
-        <v>1.017126576857056</v>
+        <v>1.037466642633339</v>
       </c>
       <c r="K13">
-        <v>1.023161137285996</v>
+        <v>1.03927760077023</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.003264947523695</v>
+        <v>1.042727133679565</v>
       </c>
       <c r="N13">
-        <v>1.009269092490336</v>
+        <v>1.016402884838022</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9878040944083687</v>
+        <v>1.030971316338298</v>
       </c>
       <c r="D14">
-        <v>1.008943713108122</v>
+        <v>1.035804740860057</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>0.9890491573724133</v>
+        <v>1.039347429557542</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037967958567956</v>
+        <v>1.03719209034201</v>
       </c>
       <c r="J14">
-        <v>1.017729581734901</v>
+        <v>1.037575827792247</v>
       </c>
       <c r="K14">
-        <v>1.023715662618341</v>
+        <v>1.039376290045965</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.004197832569236</v>
+        <v>1.042905874910148</v>
       </c>
       <c r="N14">
-        <v>1.009474151970007</v>
+        <v>1.016439744350995</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.988389672913762</v>
+        <v>1.031076376315618</v>
       </c>
       <c r="D15">
-        <v>1.009379610772257</v>
+        <v>1.03588532919528</v>
       </c>
       <c r="E15">
-        <v>0.9332781050737295</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>0.9897248772176939</v>
+        <v>1.039477455375508</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038169986209235</v>
+        <v>1.037221861780863</v>
       </c>
       <c r="J15">
-        <v>1.018099494360759</v>
+        <v>1.037643084062605</v>
       </c>
       <c r="K15">
-        <v>1.024055825806187</v>
+        <v>1.039437077632242</v>
       </c>
       <c r="L15">
-        <v>0.9494987508782939</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.004770182464979</v>
+        <v>1.04301599734584</v>
       </c>
       <c r="N15">
-        <v>1.009599944126036</v>
+        <v>1.016462447427299</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9917618683286996</v>
+        <v>1.031687840775652</v>
       </c>
       <c r="D16">
-        <v>1.011891552634395</v>
+        <v>1.036354360534222</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017259</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>0.9936167930427188</v>
+        <v>1.040234378429987</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039330210179015</v>
+        <v>1.037394701875465</v>
       </c>
       <c r="J16">
-        <v>1.020228349001795</v>
+        <v>1.038034295567337</v>
       </c>
       <c r="K16">
-        <v>1.026013313123409</v>
+        <v>1.039790610659134</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175716</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.008065242888048</v>
+        <v>1.043656867559004</v>
       </c>
       <c r="N16">
-        <v>1.01032385526566</v>
+        <v>1.016594477828988</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9938462257467044</v>
+        <v>1.032071370038945</v>
       </c>
       <c r="D17">
-        <v>1.013445630669643</v>
+        <v>1.036648546822776</v>
       </c>
       <c r="E17">
-        <v>0.938276015685567</v>
+        <v>0.989476357848556</v>
       </c>
       <c r="F17">
-        <v>0.9960229909387398</v>
+        <v>1.040709279897933</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040044502978076</v>
+        <v>1.037502730102205</v>
       </c>
       <c r="J17">
-        <v>1.021542955825564</v>
+        <v>1.038279472827278</v>
       </c>
       <c r="K17">
-        <v>1.027221946059586</v>
+        <v>1.04001212849921</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9930127773699352</v>
       </c>
       <c r="M17">
-        <v>1.010101112719945</v>
+        <v>1.044058790019722</v>
       </c>
       <c r="N17">
-        <v>1.010770856202641</v>
+        <v>1.016677198904588</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9950511875618858</v>
+        <v>1.03229506679047</v>
       </c>
       <c r="D18">
-        <v>1.01434453427359</v>
+        <v>1.036820131667337</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215687</v>
+        <v>0.9897087662937556</v>
       </c>
       <c r="F18">
-        <v>0.9974142459515193</v>
+        <v>1.040986319606872</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040456397203794</v>
+        <v>1.037565600651924</v>
       </c>
       <c r="J18">
-        <v>1.022302467630206</v>
+        <v>1.038422401502836</v>
       </c>
       <c r="K18">
-        <v>1.027920172410397</v>
+        <v>1.040141248093382</v>
       </c>
       <c r="L18">
-        <v>0.954337351586573</v>
+        <v>0.9932001317071769</v>
       </c>
       <c r="M18">
-        <v>1.011277762650124</v>
+        <v>1.044293196593248</v>
       </c>
       <c r="N18">
-        <v>1.011029098252678</v>
+        <v>1.016725413325474</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9954602460995613</v>
+        <v>1.032371340018328</v>
       </c>
       <c r="D19">
-        <v>1.014649774322194</v>
+        <v>1.036878636117894</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.9897880325774034</v>
       </c>
       <c r="F19">
-        <v>0.9978865893813348</v>
+        <v>1.041080789420761</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040596049302114</v>
+        <v>1.037587014054688</v>
       </c>
       <c r="J19">
-        <v>1.022560226442983</v>
+        <v>1.038471123074618</v>
       </c>
       <c r="K19">
-        <v>1.028157122027708</v>
+        <v>1.040185259604912</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816594</v>
+        <v>0.9932640239640975</v>
       </c>
       <c r="M19">
-        <v>1.011677163130571</v>
+        <v>1.044373118455728</v>
       </c>
       <c r="N19">
-        <v>1.011116736753514</v>
+        <v>1.016741847192933</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9936237193478329</v>
+        <v>1.032030221950385</v>
       </c>
       <c r="D20">
-        <v>1.013279679987239</v>
+        <v>1.036616984349882</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360679</v>
       </c>
       <c r="F20">
-        <v>0.9957661036527495</v>
+        <v>1.040658323571659</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03996835908918</v>
+        <v>1.037491154226839</v>
       </c>
       <c r="J20">
-        <v>1.021402668131491</v>
+        <v>1.038253175806103</v>
       </c>
       <c r="K20">
-        <v>1.027092973365757</v>
+        <v>1.039988370833947</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057443</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.00988381182598</v>
+        <v>1.044015670445726</v>
       </c>
       <c r="N20">
-        <v>1.010723155888138</v>
+        <v>1.016668327375245</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9875235718773913</v>
+        <v>1.030921103360322</v>
       </c>
       <c r="D21">
-        <v>1.008734927099744</v>
+        <v>1.035766223927819</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>0.988725462672307</v>
+        <v>1.039285286965141</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03787112022234</v>
+        <v>1.037177853543878</v>
       </c>
       <c r="J21">
-        <v>1.017552350280051</v>
+        <v>1.037543678881939</v>
       </c>
       <c r="K21">
-        <v>1.023552681971752</v>
+        <v>1.039347232291427</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.003923629791012</v>
+        <v>1.042853241310912</v>
       </c>
       <c r="N21">
-        <v>1.009413882426374</v>
+        <v>1.016428891660855</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9835833240008258</v>
+        <v>1.030223670343129</v>
       </c>
       <c r="D22">
-        <v>1.005804486359881</v>
+        <v>1.035231238768459</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>0.9841794329750944</v>
+        <v>1.038422336241275</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036507167895711</v>
+        <v>1.036979603529615</v>
       </c>
       <c r="J22">
-        <v>1.015061363170155</v>
+        <v>1.037096877863516</v>
       </c>
       <c r="K22">
-        <v>1.021261825614245</v>
+        <v>1.038943331161687</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.000070951046233</v>
+        <v>1.042122117542032</v>
       </c>
       <c r="N22">
-        <v>1.008566775118611</v>
+        <v>1.016278030726163</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9856824424298191</v>
+        <v>1.030593401026028</v>
       </c>
       <c r="D23">
-        <v>1.007365131425978</v>
+        <v>1.035514851795982</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794643023</v>
       </c>
       <c r="F23">
-        <v>0.9866011385692256</v>
+        <v>1.038879771671883</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037234655848884</v>
+        <v>1.037084819552207</v>
       </c>
       <c r="J23">
-        <v>1.016388764738974</v>
+        <v>1.037333803029725</v>
       </c>
       <c r="K23">
-        <v>1.022482617540577</v>
+        <v>1.039157521803859</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.991776070289318</v>
       </c>
       <c r="M23">
-        <v>1.002123697213596</v>
+        <v>1.042509724882559</v>
       </c>
       <c r="N23">
-        <v>1.009018186958068</v>
+        <v>1.016358035096226</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9937242937350618</v>
+        <v>1.032048815029212</v>
       </c>
       <c r="D24">
-        <v>1.013354689281239</v>
+        <v>1.036631246100695</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>0.9958822176883837</v>
+        <v>1.040681348425204</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040002779857434</v>
+        <v>1.037496385300666</v>
       </c>
       <c r="J24">
-        <v>1.021466080538953</v>
+        <v>1.038265058542253</v>
       </c>
       <c r="K24">
-        <v>1.027151271386873</v>
+        <v>1.039999106172122</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766442</v>
       </c>
       <c r="M24">
-        <v>1.009982034160213</v>
+        <v>1.04403515441135</v>
       </c>
       <c r="N24">
-        <v>1.010744717273666</v>
+        <v>1.016672336146791</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.002635501495941</v>
+        <v>1.03373737479797</v>
       </c>
       <c r="D25">
-        <v>1.020010534390457</v>
+        <v>1.037926403175245</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607049</v>
       </c>
       <c r="F25">
-        <v>1.006175968619542</v>
+        <v>1.042773461542064</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04303015284819</v>
+        <v>1.037968473253529</v>
       </c>
       <c r="J25">
-        <v>1.027074494869338</v>
+        <v>1.039342626684479</v>
       </c>
       <c r="K25">
-        <v>1.032305955999896</v>
+        <v>1.04097226473914</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426414</v>
       </c>
       <c r="M25">
-        <v>1.018679161231952</v>
+        <v>1.045804235290678</v>
       </c>
       <c r="N25">
-        <v>1.012651365778964</v>
+        <v>1.017035676684767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_89/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_89/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.03508387794875</v>
+        <v>1.009438570691902</v>
       </c>
       <c r="D2">
-        <v>1.038959112610628</v>
+        <v>1.025104247534538</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.044443363667182</v>
+        <v>1.014044157089989</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038340563394524</v>
+        <v>1.045307977371566</v>
       </c>
       <c r="J2">
-        <v>1.040199588978427</v>
+        <v>1.031340594585898</v>
       </c>
       <c r="K2">
-        <v>1.041745662628496</v>
+        <v>1.036224577561939</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.047214398958442</v>
+        <v>1.025311241316957</v>
       </c>
       <c r="N2">
-        <v>1.017324353309392</v>
+        <v>1.014101074634805</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.036061397472625</v>
+        <v>1.014217069792276</v>
       </c>
       <c r="D3">
-        <v>1.039708767190242</v>
+        <v>1.028688125516277</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.045656601634446</v>
+        <v>1.01957733633536</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038608154690166</v>
+        <v>1.046887976095221</v>
       </c>
       <c r="J3">
-        <v>1.040820367756812</v>
+        <v>1.034327526108492</v>
       </c>
       <c r="K3">
-        <v>1.042305597133657</v>
+        <v>1.038966637349699</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.048237827325504</v>
+        <v>1.029965702619719</v>
       </c>
       <c r="N3">
-        <v>1.017533305539295</v>
+        <v>1.015115642245005</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036693845215637</v>
+        <v>1.017239152227255</v>
       </c>
       <c r="D4">
-        <v>1.040193756117787</v>
+        <v>1.030957126410767</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.046441998090052</v>
+        <v>1.023080017875889</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038780110454255</v>
+        <v>1.047877771865557</v>
       </c>
       <c r="J4">
-        <v>1.041221381246135</v>
+        <v>1.036211927441474</v>
       </c>
       <c r="K4">
-        <v>1.042667161295123</v>
+        <v>1.040695748908266</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.048899839723459</v>
+        <v>1.032907644474069</v>
       </c>
       <c r="N4">
-        <v>1.017668209137904</v>
+        <v>1.015755471253642</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036959708800484</v>
+        <v>1.018493537664819</v>
       </c>
       <c r="D5">
-        <v>1.040397623850994</v>
+        <v>1.031899462199355</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.046772263392677</v>
+        <v>1.024534723201302</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038852114740509</v>
+        <v>1.048286310326651</v>
       </c>
       <c r="J5">
-        <v>1.041389806248352</v>
+        <v>1.036992951376869</v>
       </c>
       <c r="K5">
-        <v>1.042818982786611</v>
+        <v>1.041412206617496</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.049178099010734</v>
+        <v>1.034128376072682</v>
       </c>
       <c r="N5">
-        <v>1.017724850055826</v>
+        <v>1.016020596497174</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.037004347442381</v>
+        <v>1.018703228509212</v>
       </c>
       <c r="D6">
-        <v>1.040431852855267</v>
+        <v>1.032057018875095</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.046827721375165</v>
+        <v>1.02477795106828</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.038864187806549</v>
+        <v>1.048354468039297</v>
       </c>
       <c r="J6">
-        <v>1.041418076095889</v>
+        <v>1.03712344429798</v>
       </c>
       <c r="K6">
-        <v>1.042844463713856</v>
+        <v>1.04153189958496</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.049224817011082</v>
+        <v>1.034332418699211</v>
       </c>
       <c r="N6">
-        <v>1.017734356056329</v>
+        <v>1.016064889563818</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036697397766449</v>
+        <v>1.017255975817015</v>
       </c>
       <c r="D7">
-        <v>1.040196480294107</v>
+        <v>1.030969762800612</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.046446410777685</v>
+        <v>1.023099524762671</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038781073702686</v>
+        <v>1.047883260238636</v>
       </c>
       <c r="J7">
-        <v>1.041223632382416</v>
+        <v>1.036222406937939</v>
       </c>
       <c r="K7">
-        <v>1.042669190649315</v>
+        <v>1.040705362897382</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.048903558036289</v>
+        <v>1.032924018222919</v>
       </c>
       <c r="N7">
-        <v>1.017668966261893</v>
+        <v>1.015759028865302</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.035414250295467</v>
+        <v>1.011068364025631</v>
       </c>
       <c r="D8">
-        <v>1.039212479679644</v>
+        <v>1.026326050570443</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.044853311027014</v>
+        <v>1.015930677311806</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038431244202496</v>
+        <v>1.045848828882558</v>
       </c>
       <c r="J8">
-        <v>1.04040952306259</v>
+        <v>1.032360296933219</v>
       </c>
       <c r="K8">
-        <v>1.041935050407854</v>
+        <v>1.037160846392178</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.04756031604846</v>
+        <v>1.026899096119263</v>
       </c>
       <c r="N8">
-        <v>1.017395032235279</v>
+        <v>1.014447483921266</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.033152624045191</v>
+        <v>0.999598603724841</v>
       </c>
       <c r="D9">
-        <v>1.037477899758061</v>
+        <v>1.017740115122731</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.04204871499251</v>
+        <v>1.00266651895012</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037805663767998</v>
+        <v>1.042003626596024</v>
       </c>
       <c r="J9">
-        <v>1.038969821716493</v>
+        <v>1.025165544295788</v>
       </c>
       <c r="K9">
-        <v>1.040635663961925</v>
+        <v>1.030551781961188</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.045191686520374</v>
+        <v>1.015716481383625</v>
       </c>
       <c r="N9">
-        <v>1.016910015151339</v>
+        <v>1.012002475923425</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.03164449700387</v>
+        <v>0.9915248292835269</v>
       </c>
       <c r="D10">
-        <v>1.03632111344021</v>
+        <v>1.011714887800449</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.040180715071189</v>
+        <v>0.9933431842985659</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037382474638244</v>
+        <v>1.039248838288658</v>
       </c>
       <c r="J10">
-        <v>1.038006577479572</v>
+        <v>1.020078786446721</v>
       </c>
       <c r="K10">
-        <v>1.039765565106321</v>
+        <v>1.025875799452168</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.043611442644321</v>
+        <v>1.007833678858639</v>
       </c>
       <c r="N10">
-        <v>1.016585124765853</v>
+        <v>1.010272998575457</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030991370670861</v>
+        <v>0.9879160137945325</v>
       </c>
       <c r="D11">
-        <v>1.035820123949057</v>
+        <v>1.009027017672736</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.039372248892747</v>
+        <v>0.9891783028786495</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037197774928161</v>
+        <v>1.038006583724685</v>
       </c>
       <c r="J11">
-        <v>1.037588666866625</v>
+        <v>1.017800286998814</v>
       </c>
       <c r="K11">
-        <v>1.039387894462973</v>
+        <v>1.023780682145461</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.042926895815578</v>
+        <v>1.004307227425385</v>
       </c>
       <c r="N11">
-        <v>1.016444078423518</v>
+        <v>1.009498196021976</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030748755602423</v>
+        <v>0.9865575209358425</v>
       </c>
       <c r="D12">
-        <v>1.035634020570872</v>
+        <v>1.008016076592483</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.039072006018485</v>
+        <v>0.987610785741652</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037128950510561</v>
+        <v>1.037537355547425</v>
       </c>
       <c r="J12">
-        <v>1.03743331316808</v>
+        <v>1.016941891173325</v>
       </c>
       <c r="K12">
-        <v>1.039247473888574</v>
+        <v>1.022991295925628</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.042672580052871</v>
+        <v>1.002979255961814</v>
       </c>
       <c r="N12">
-        <v>1.016391632527559</v>
+        <v>1.009206287287531</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030800798034816</v>
+        <v>0.9868497557562124</v>
       </c>
       <c r="D13">
-        <v>1.035673940984244</v>
+        <v>1.008233506357728</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.039136406552399</v>
+        <v>0.9879479728790075</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037143723478893</v>
+        <v>1.037638365904222</v>
       </c>
       <c r="J13">
-        <v>1.037466642633339</v>
+        <v>1.017126576857056</v>
       </c>
       <c r="K13">
-        <v>1.03927760077023</v>
+        <v>1.023161137285997</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.042727133679565</v>
+        <v>1.003264947523695</v>
       </c>
       <c r="N13">
-        <v>1.016402884838022</v>
+        <v>1.009269092490336</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030971316338298</v>
+        <v>0.9878040944083687</v>
       </c>
       <c r="D14">
-        <v>1.035804740860057</v>
+        <v>1.008943713108122</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.039347429557542</v>
+        <v>0.9890491573724129</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03719209034201</v>
+        <v>1.037967958567956</v>
       </c>
       <c r="J14">
-        <v>1.037575827792247</v>
+        <v>1.017729581734901</v>
       </c>
       <c r="K14">
-        <v>1.039376290045965</v>
+        <v>1.023715662618341</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.042905874910148</v>
+        <v>1.004197832569235</v>
       </c>
       <c r="N14">
-        <v>1.016439744350995</v>
+        <v>1.009474151970007</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.031076376315618</v>
+        <v>0.9883896729137612</v>
       </c>
       <c r="D15">
-        <v>1.03588532919528</v>
+        <v>1.009379610772256</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.9332781050737295</v>
       </c>
       <c r="F15">
-        <v>1.039477455375508</v>
+        <v>0.9897248772176934</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037221861780863</v>
+        <v>1.038169986209235</v>
       </c>
       <c r="J15">
-        <v>1.037643084062605</v>
+        <v>1.018099494360758</v>
       </c>
       <c r="K15">
-        <v>1.039437077632242</v>
+        <v>1.024055825806187</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508782941</v>
       </c>
       <c r="M15">
-        <v>1.04301599734584</v>
+        <v>1.004770182464979</v>
       </c>
       <c r="N15">
-        <v>1.016462447427299</v>
+        <v>1.009599944126036</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031687840775652</v>
+        <v>0.9917618683286988</v>
       </c>
       <c r="D16">
-        <v>1.036354360534222</v>
+        <v>1.011891552634394</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.040234378429987</v>
+        <v>0.9936167930427181</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037394701875465</v>
+        <v>1.039330210179015</v>
       </c>
       <c r="J16">
-        <v>1.038034295567337</v>
+        <v>1.020228349001794</v>
       </c>
       <c r="K16">
-        <v>1.039790610659134</v>
+        <v>1.026013313123409</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175717</v>
       </c>
       <c r="M16">
-        <v>1.043656867559004</v>
+        <v>1.008065242888047</v>
       </c>
       <c r="N16">
-        <v>1.016594477828988</v>
+        <v>1.01032385526566</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.032071370038945</v>
+        <v>0.993846225746704</v>
       </c>
       <c r="D17">
-        <v>1.036648546822776</v>
+        <v>1.013445630669642</v>
       </c>
       <c r="E17">
-        <v>0.989476357848556</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.040709279897933</v>
+        <v>0.9960229909387395</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037502730102205</v>
+        <v>1.040044502978076</v>
       </c>
       <c r="J17">
-        <v>1.038279472827278</v>
+        <v>1.021542955825563</v>
       </c>
       <c r="K17">
-        <v>1.04001212849921</v>
+        <v>1.027221946059586</v>
       </c>
       <c r="L17">
-        <v>0.9930127773699352</v>
+        <v>0.9534603602068056</v>
       </c>
       <c r="M17">
-        <v>1.044058790019722</v>
+        <v>1.010101112719945</v>
       </c>
       <c r="N17">
-        <v>1.016677198904588</v>
+        <v>1.010770856202641</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.03229506679047</v>
+        <v>0.9950511875618854</v>
       </c>
       <c r="D18">
-        <v>1.036820131667337</v>
+        <v>1.01434453427359</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937556</v>
+        <v>0.9393832867215687</v>
       </c>
       <c r="F18">
-        <v>1.040986319606872</v>
+        <v>0.997414245951519</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037565600651924</v>
+        <v>1.040456397203794</v>
       </c>
       <c r="J18">
-        <v>1.038422401502836</v>
+        <v>1.022302467630206</v>
       </c>
       <c r="K18">
-        <v>1.040141248093382</v>
+        <v>1.027920172410397</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071769</v>
+        <v>0.954337351586573</v>
       </c>
       <c r="M18">
-        <v>1.044293196593248</v>
+        <v>1.011277762650124</v>
       </c>
       <c r="N18">
-        <v>1.016725413325474</v>
+        <v>1.011029098252678</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032371340018328</v>
+        <v>0.9954602460995619</v>
       </c>
       <c r="D19">
-        <v>1.036878636117894</v>
+        <v>1.014649774322194</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774034</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>1.041080789420761</v>
+        <v>0.997886589381335</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037587014054688</v>
+        <v>1.040596049302114</v>
       </c>
       <c r="J19">
-        <v>1.038471123074618</v>
+        <v>1.022560226442983</v>
       </c>
       <c r="K19">
-        <v>1.040185259604912</v>
+        <v>1.028157122027708</v>
       </c>
       <c r="L19">
-        <v>0.9932640239640975</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>1.044373118455728</v>
+        <v>1.011677163130571</v>
       </c>
       <c r="N19">
-        <v>1.016741847192933</v>
+        <v>1.011116736753514</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.032030221950385</v>
+        <v>0.9936237193478327</v>
       </c>
       <c r="D20">
-        <v>1.036616984349882</v>
+        <v>1.013279679987239</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360679</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.040658323571659</v>
+        <v>0.9957661036527493</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037491154226839</v>
+        <v>1.039968359089179</v>
       </c>
       <c r="J20">
-        <v>1.038253175806103</v>
+        <v>1.021402668131491</v>
       </c>
       <c r="K20">
-        <v>1.039988370833947</v>
+        <v>1.027092973365756</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.044015670445726</v>
+        <v>1.009883811825979</v>
       </c>
       <c r="N20">
-        <v>1.016668327375245</v>
+        <v>1.010723155888138</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030921103360322</v>
+        <v>0.9875235718773909</v>
       </c>
       <c r="D21">
-        <v>1.035766223927819</v>
+        <v>1.008734927099744</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.039285286965141</v>
+        <v>0.9887254626723065</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037177853543878</v>
+        <v>1.03787112022234</v>
       </c>
       <c r="J21">
-        <v>1.037543678881939</v>
+        <v>1.017552350280051</v>
       </c>
       <c r="K21">
-        <v>1.039347232291427</v>
+        <v>1.023552681971752</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.042853241310912</v>
+        <v>1.003923629791011</v>
       </c>
       <c r="N21">
-        <v>1.016428891660855</v>
+        <v>1.009413882426374</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030223670343129</v>
+        <v>0.9835833240008254</v>
       </c>
       <c r="D22">
-        <v>1.035231238768459</v>
+        <v>1.005804486359881</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.038422336241275</v>
+        <v>0.9841794329750939</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036979603529615</v>
+        <v>1.036507167895711</v>
       </c>
       <c r="J22">
-        <v>1.037096877863516</v>
+        <v>1.015061363170155</v>
       </c>
       <c r="K22">
-        <v>1.038943331161687</v>
+        <v>1.021261825614245</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.042122117542032</v>
+        <v>1.000070951046233</v>
       </c>
       <c r="N22">
-        <v>1.016278030726163</v>
+        <v>1.008566775118611</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.030593401026028</v>
+        <v>0.9856824424298193</v>
       </c>
       <c r="D23">
-        <v>1.035514851795982</v>
+        <v>1.007365131425978</v>
       </c>
       <c r="E23">
-        <v>0.9879432794643023</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.038879771671883</v>
+        <v>0.9866011385692256</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037084819552207</v>
+        <v>1.037234655848883</v>
       </c>
       <c r="J23">
-        <v>1.037333803029725</v>
+        <v>1.016388764738975</v>
       </c>
       <c r="K23">
-        <v>1.039157521803859</v>
+        <v>1.022482617540577</v>
       </c>
       <c r="L23">
-        <v>0.991776070289318</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.042509724882559</v>
+        <v>1.002123697213597</v>
       </c>
       <c r="N23">
-        <v>1.016358035096226</v>
+        <v>1.009018186958068</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.032048815029212</v>
+        <v>0.993724293735062</v>
       </c>
       <c r="D24">
-        <v>1.036631246100695</v>
+        <v>1.01335468928124</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.040681348425204</v>
+        <v>0.9958822176883841</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037496385300666</v>
+        <v>1.040002779857434</v>
       </c>
       <c r="J24">
-        <v>1.038265058542253</v>
+        <v>1.021466080538953</v>
       </c>
       <c r="K24">
-        <v>1.039999106172122</v>
+        <v>1.027151271386874</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766442</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.04403515441135</v>
+        <v>1.009982034160213</v>
       </c>
       <c r="N24">
-        <v>1.016672336146791</v>
+        <v>1.010744717273666</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.03373737479797</v>
+        <v>1.002635501495941</v>
       </c>
       <c r="D25">
-        <v>1.037926403175245</v>
+        <v>1.020010534390458</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607049</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.042773461542064</v>
+        <v>1.006175968619542</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037968473253529</v>
+        <v>1.04303015284819</v>
       </c>
       <c r="J25">
-        <v>1.039342626684479</v>
+        <v>1.027074494869338</v>
       </c>
       <c r="K25">
-        <v>1.04097226473914</v>
+        <v>1.032305955999897</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426414</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.045804235290678</v>
+        <v>1.018679161231952</v>
       </c>
       <c r="N25">
-        <v>1.017035676684767</v>
+        <v>1.012651365778964</v>
       </c>
     </row>
   </sheetData>
